--- a/VIKAS SITE ALLOWANCE YWD.xlsx
+++ b/VIKAS SITE ALLOWANCE YWD.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiva\OneDrive\Desktop\New folder (2)\Projectsample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E58E1C-B79F-4824-B207-48F2681422F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D570712-9625-4923-A9B9-F27602297CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2595" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN SHEET" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="329">
   <si>
     <t>DiFACTO Robotics &amp; Automation Pvt. Ltd.</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t>M019-157/72</t>
+  </si>
+  <si>
+    <t>hiiii</t>
   </si>
 </sst>
 </file>
@@ -2209,6 +2212,9 @@
     <xf numFmtId="164" fontId="10" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2218,73 +2224,94 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="30" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="36" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,9 +2320,6 @@
     <xf numFmtId="164" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2307,27 +2331,6 @@
     </xf>
     <xf numFmtId="15" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="49" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5429,7 +5432,7 @@
   <dimension ref="A1:AD140"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5452,14 +5455,14 @@
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
       <c r="E1" s="30"/>
-      <c r="F1" s="180" t="s">
+      <c r="F1" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="G1" s="181"/>
-      <c r="H1" s="181"/>
-      <c r="I1" s="181"/>
-      <c r="J1" s="181"/>
-      <c r="K1" s="182"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="169"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
       <c r="N1" s="29"/>
@@ -5486,12 +5489,12 @@
       <c r="C2" s="32"/>
       <c r="D2" s="31"/>
       <c r="E2" s="32"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="184"/>
-      <c r="I2" s="184"/>
-      <c r="J2" s="184"/>
-      <c r="K2" s="185"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="172"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
@@ -5516,7 +5519,7 @@
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="32"/>
-      <c r="D3" s="179" t="s">
+      <c r="D3" s="163" t="s">
         <v>200</v>
       </c>
       <c r="E3" s="159"/>
@@ -5524,7 +5527,7 @@
         <v>201</v>
       </c>
       <c r="G3" s="34"/>
-      <c r="H3" s="186" t="s">
+      <c r="H3" s="173" t="s">
         <v>202</v>
       </c>
       <c r="I3" s="158"/>
@@ -5556,7 +5559,7 @@
       <c r="C4" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="163" t="s">
         <v>204</v>
       </c>
       <c r="E4" s="159"/>
@@ -5564,11 +5567,11 @@
         <v>205</v>
       </c>
       <c r="G4" s="31"/>
-      <c r="H4" s="187" t="s">
+      <c r="H4" s="174" t="s">
         <v>322</v>
       </c>
-      <c r="I4" s="188"/>
-      <c r="J4" s="188"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
@@ -5594,7 +5597,7 @@
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="36"/>
-      <c r="D5" s="179" t="s">
+      <c r="D5" s="163" t="s">
         <v>206</v>
       </c>
       <c r="E5" s="159"/>
@@ -5602,9 +5605,9 @@
         <v>44977</v>
       </c>
       <c r="G5" s="38"/>
-      <c r="H5" s="188"/>
-      <c r="I5" s="188"/>
-      <c r="J5" s="188"/>
+      <c r="H5" s="175"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="175"/>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
       <c r="M5" s="31"/>
@@ -5630,7 +5633,7 @@
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="36"/>
-      <c r="D6" s="179" t="s">
+      <c r="D6" s="163" t="s">
         <v>207</v>
       </c>
       <c r="E6" s="159"/>
@@ -5638,7 +5641,7 @@
         <v>208</v>
       </c>
       <c r="G6" s="38"/>
-      <c r="H6" s="179" t="s">
+      <c r="H6" s="163" t="s">
         <v>209</v>
       </c>
       <c r="I6" s="159"/>
@@ -5737,14 +5740,14 @@
       <c r="D9" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="163" t="s">
+      <c r="E9" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
       <c r="K9" s="49"/>
       <c r="L9" s="50"/>
       <c r="M9" s="29"/>
@@ -5773,14 +5776,14 @@
       <c r="D10" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="E10" s="163" t="s">
+      <c r="E10" s="164" t="s">
         <v>321</v>
       </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="166"/>
       <c r="K10" s="49"/>
       <c r="L10" s="50"/>
       <c r="M10" s="29"/>
@@ -5809,16 +5812,16 @@
       <c r="D11" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="163" t="s">
+      <c r="E11" s="164" t="s">
         <v>326</v>
       </c>
-      <c r="F11" s="164"/>
-      <c r="G11" s="165"/>
-      <c r="H11" s="166" t="str">
+      <c r="F11" s="165"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="179" t="str">
         <f>'LODGING TRAVEL APPLICATION FORM'!K10</f>
         <v>PROJECT CODE</v>
       </c>
-      <c r="I11" s="167"/>
+      <c r="I11" s="178"/>
       <c r="J11" s="51" t="s">
         <v>327</v>
       </c>
@@ -5862,10 +5865,10 @@
         <f>'LODGING TRAVEL APPLICATION FORM'!H13</f>
         <v>NO</v>
       </c>
-      <c r="H12" s="166" t="s">
+      <c r="H12" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="I12" s="167"/>
+      <c r="I12" s="178"/>
       <c r="J12" s="55" t="s">
         <v>217</v>
       </c>
@@ -5902,10 +5905,10 @@
       <c r="E13" s="52"/>
       <c r="F13" s="56"/>
       <c r="G13" s="56"/>
-      <c r="H13" s="166" t="s">
+      <c r="H13" s="179" t="s">
         <v>220</v>
       </c>
-      <c r="I13" s="167"/>
+      <c r="I13" s="178"/>
       <c r="J13" s="55" t="s">
         <v>217</v>
       </c>
@@ -5966,11 +5969,11 @@
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="47"/>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="179" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="166"/>
       <c r="G15" s="56"/>
       <c r="H15" s="56"/>
       <c r="I15" s="56"/>
@@ -6081,9 +6084,7 @@
       <c r="D18" s="65">
         <v>44941</v>
       </c>
-      <c r="E18" s="66" t="s">
-        <v>323</v>
-      </c>
+      <c r="E18" s="66"/>
       <c r="F18" s="66" t="s">
         <v>324</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>44947</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F20" s="66" t="s">
         <v>324</v>
@@ -6607,10 +6608,10 @@
       <c r="D31" s="70"/>
       <c r="E31" s="70"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="169" t="s">
+      <c r="G31" s="177" t="s">
         <v>232</v>
       </c>
-      <c r="H31" s="165"/>
+      <c r="H31" s="166"/>
       <c r="I31" s="69"/>
       <c r="J31" s="71">
         <v>1250</v>
@@ -6676,10 +6677,10 @@
       <c r="E33" s="70"/>
       <c r="F33" s="56"/>
       <c r="G33" s="56"/>
-      <c r="H33" s="169" t="s">
+      <c r="H33" s="177" t="s">
         <v>233</v>
       </c>
-      <c r="I33" s="167"/>
+      <c r="I33" s="178"/>
       <c r="J33" s="71">
         <v>1250</v>
       </c>
@@ -6740,11 +6741,11 @@
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="47"/>
-      <c r="D35" s="166" t="s">
+      <c r="D35" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="165"/>
+      <c r="E35" s="165"/>
+      <c r="F35" s="166"/>
       <c r="G35" s="70"/>
       <c r="H35" s="70"/>
       <c r="I35" s="70"/>
@@ -6809,15 +6810,15 @@
       <c r="B37" s="29"/>
       <c r="C37" s="47"/>
       <c r="D37" s="70"/>
-      <c r="E37" s="169" t="s">
+      <c r="E37" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="F37" s="164"/>
-      <c r="G37" s="165"/>
-      <c r="H37" s="169" t="s">
+      <c r="F37" s="165"/>
+      <c r="G37" s="166"/>
+      <c r="H37" s="177" t="s">
         <v>236</v>
       </c>
-      <c r="I37" s="165"/>
+      <c r="I37" s="166"/>
       <c r="J37" s="70"/>
       <c r="K37" s="49"/>
       <c r="L37" s="50"/>
@@ -7721,16 +7722,16 @@
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="47"/>
-      <c r="D59" s="166" t="s">
+      <c r="D59" s="179" t="s">
         <v>242</v>
       </c>
-      <c r="E59" s="167"/>
+      <c r="E59" s="178"/>
       <c r="F59" s="79"/>
       <c r="G59" s="70"/>
-      <c r="H59" s="169" t="s">
+      <c r="H59" s="177" t="s">
         <v>232</v>
       </c>
-      <c r="I59" s="165"/>
+      <c r="I59" s="166"/>
       <c r="J59" s="69">
         <f>SUM(J39:J57)</f>
         <v>8300</v>
@@ -7760,17 +7761,17 @@
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="47"/>
-      <c r="D60" s="166" t="s">
+      <c r="D60" s="179" t="s">
         <v>243</v>
       </c>
-      <c r="E60" s="167"/>
+      <c r="E60" s="178"/>
       <c r="F60" s="69"/>
       <c r="G60" s="70"/>
-      <c r="H60" s="173" t="s">
+      <c r="H60" s="182" t="s">
         <v>244</v>
       </c>
-      <c r="I60" s="174"/>
-      <c r="J60" s="171">
+      <c r="I60" s="183"/>
+      <c r="J60" s="180">
         <v>8300</v>
       </c>
       <c r="K60" s="49"/>
@@ -7798,15 +7799,15 @@
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="47"/>
-      <c r="D61" s="166" t="s">
+      <c r="D61" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="E61" s="167"/>
+      <c r="E61" s="178"/>
       <c r="F61" s="71"/>
       <c r="G61" s="70"/>
-      <c r="H61" s="175"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="172"/>
+      <c r="H61" s="184"/>
+      <c r="I61" s="185"/>
+      <c r="J61" s="181"/>
       <c r="K61" s="49"/>
       <c r="L61" s="50"/>
       <c r="M61" s="29"/>
@@ -7868,11 +7869,11 @@
       <c r="E63" s="70"/>
       <c r="F63" s="70"/>
       <c r="G63" s="70"/>
-      <c r="H63" s="169" t="s">
+      <c r="H63" s="177" t="s">
         <v>246</v>
       </c>
-      <c r="I63" s="167"/>
-      <c r="J63" s="171">
+      <c r="I63" s="178"/>
+      <c r="J63" s="180">
         <v>9550</v>
       </c>
       <c r="K63" s="49"/>
@@ -7904,11 +7905,11 @@
       <c r="E64" s="70"/>
       <c r="F64" s="70"/>
       <c r="G64" s="70"/>
-      <c r="H64" s="169" t="s">
+      <c r="H64" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="I64" s="167"/>
-      <c r="J64" s="172"/>
+      <c r="I64" s="178"/>
+      <c r="J64" s="181"/>
       <c r="K64" s="49"/>
       <c r="L64" s="50"/>
       <c r="M64" s="29"/>
@@ -7945,7 +7946,7 @@
         <f>IF(J64&gt;=J63,"COMPANY","EMPLOYEE")</f>
         <v>EMPLOYEE</v>
       </c>
-      <c r="J65" s="171">
+      <c r="J65" s="180">
         <v>9550</v>
       </c>
       <c r="K65" s="49"/>
@@ -7979,7 +7980,7 @@
       <c r="G66" s="84"/>
       <c r="H66" s="85"/>
       <c r="I66" s="85"/>
-      <c r="J66" s="172"/>
+      <c r="J66" s="181"/>
       <c r="K66" s="86"/>
       <c r="L66" s="50"/>
       <c r="M66" s="29"/>
@@ -8037,16 +8038,16 @@
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
-      <c r="D68" s="177" t="s">
+      <c r="D68" s="186" t="s">
         <v>249</v>
       </c>
       <c r="E68" s="159"/>
-      <c r="F68" s="178" t="s">
+      <c r="F68" s="187" t="s">
         <v>250</v>
       </c>
       <c r="G68" s="158"/>
       <c r="H68" s="159"/>
-      <c r="I68" s="168" t="s">
+      <c r="I68" s="188" t="s">
         <v>251</v>
       </c>
       <c r="J68" s="159"/>
@@ -8075,16 +8076,16 @@
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
-      <c r="D69" s="170" t="s">
+      <c r="D69" s="176" t="s">
         <v>252</v>
       </c>
       <c r="E69" s="159"/>
-      <c r="F69" s="170" t="s">
+      <c r="F69" s="176" t="s">
         <v>253</v>
       </c>
       <c r="G69" s="158"/>
       <c r="H69" s="159"/>
-      <c r="I69" s="170" t="s">
+      <c r="I69" s="176" t="s">
         <v>254</v>
       </c>
       <c r="J69" s="159"/>
@@ -10428,15 +10429,17 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="F1:K2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H64:I64"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="F69:H69"/>
     <mergeCell ref="I69:J69"/>
@@ -10453,17 +10456,15 @@
     <mergeCell ref="H60:I61"/>
     <mergeCell ref="D68:E68"/>
     <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="F1:K2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G18:G30" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -10637,7 +10638,7 @@
       <c r="C1" s="96"/>
       <c r="D1" s="97"/>
       <c r="E1" s="96"/>
-      <c r="F1" s="189" t="str">
+      <c r="F1" s="197" t="str">
         <f>'MAIN SHEET'!A3</f>
         <v>LODGING TRAVEL / DAY TRIP APPLICATION</v>
       </c>
@@ -10683,11 +10684,11 @@
         <v>204</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="190">
+      <c r="E3" s="198">
         <f>'MAIN SHEET'!C6</f>
         <v>0</v>
       </c>
-      <c r="F3" s="191"/>
+      <c r="F3" s="196"/>
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
       <c r="I3" s="35"/>
@@ -10695,8 +10696,8 @@
       <c r="K3" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="L3" s="192"/>
-      <c r="M3" s="188"/>
+      <c r="L3" s="199"/>
+      <c r="M3" s="175"/>
       <c r="N3" s="100"/>
       <c r="O3" s="100"/>
       <c r="P3" s="100"/>
@@ -10728,24 +10729,24 @@
     <row r="5" spans="1:19" ht="12.75" customHeight="1">
       <c r="A5" s="106"/>
       <c r="B5" s="106"/>
-      <c r="C5" s="193" t="s">
+      <c r="C5" s="200" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="188"/>
-      <c r="E5" s="194" t="e">
+      <c r="D5" s="175"/>
+      <c r="E5" s="201" t="e">
         <f>'MAIN SHEET'!C8</f>
         <v>#N/A</v>
       </c>
-      <c r="F5" s="188"/>
-      <c r="G5" s="188"/>
+      <c r="F5" s="175"/>
+      <c r="G5" s="175"/>
       <c r="H5" s="107"/>
       <c r="I5" s="107"/>
       <c r="J5" s="107"/>
       <c r="K5" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="L5" s="195"/>
-      <c r="M5" s="188"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="175"/>
       <c r="N5" s="108"/>
       <c r="O5" s="106"/>
       <c r="P5" s="106"/>
@@ -10801,18 +10802,18 @@
       <c r="C8" s="115" t="s">
         <v>210</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="164" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="164"/>
-      <c r="L8" s="164"/>
-      <c r="M8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="166"/>
       <c r="N8" s="49"/>
       <c r="O8" s="116"/>
       <c r="P8" s="117"/>
@@ -10826,18 +10827,18 @@
       <c r="C9" s="115" t="s">
         <v>211</v>
       </c>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="164" t="s">
         <v>266</v>
       </c>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="164"/>
-      <c r="K9" s="164"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="166"/>
       <c r="N9" s="49"/>
       <c r="O9" s="116"/>
       <c r="P9" s="117"/>
@@ -10851,22 +10852,22 @@
       <c r="C10" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="164" t="s">
         <v>267</v>
       </c>
-      <c r="E10" s="164"/>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="166"/>
       <c r="K10" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="L10" s="201" t="s">
+      <c r="L10" s="190" t="s">
         <v>269</v>
       </c>
-      <c r="M10" s="165"/>
+      <c r="M10" s="166"/>
       <c r="N10" s="49"/>
       <c r="O10" s="118"/>
       <c r="P10" s="118"/>
@@ -10880,10 +10881,10 @@
       <c r="C11" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="D11" s="202">
+      <c r="D11" s="191">
         <v>44101</v>
       </c>
-      <c r="E11" s="172"/>
+      <c r="E11" s="181"/>
       <c r="F11" s="120"/>
       <c r="G11" s="120"/>
       <c r="H11" s="120"/>
@@ -10892,8 +10893,8 @@
       <c r="K11" s="73" t="s">
         <v>216</v>
       </c>
-      <c r="L11" s="197"/>
-      <c r="M11" s="165"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="166"/>
       <c r="N11" s="49"/>
       <c r="O11" s="116"/>
       <c r="P11" s="117"/>
@@ -10907,10 +10908,10 @@
       <c r="C12" s="119" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="202">
+      <c r="D12" s="191">
         <v>44104</v>
       </c>
-      <c r="E12" s="172"/>
+      <c r="E12" s="181"/>
       <c r="F12" s="120"/>
       <c r="G12" s="120"/>
       <c r="H12" s="120"/>
@@ -10919,8 +10920,8 @@
       <c r="K12" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="L12" s="197"/>
-      <c r="M12" s="165"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="166"/>
       <c r="N12" s="49"/>
       <c r="O12" s="116"/>
       <c r="P12" s="117"/>
@@ -10934,24 +10935,24 @@
       <c r="C13" s="115" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="196" t="s">
+      <c r="D13" s="193" t="s">
         <v>259</v>
       </c>
-      <c r="E13" s="165"/>
+      <c r="E13" s="166"/>
       <c r="F13" s="120"/>
       <c r="G13" s="73" t="s">
         <v>215</v>
       </c>
-      <c r="H13" s="197" t="s">
+      <c r="H13" s="192" t="s">
         <v>218</v>
       </c>
-      <c r="I13" s="165"/>
+      <c r="I13" s="166"/>
       <c r="J13" s="121"/>
       <c r="K13" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="L13" s="198"/>
-      <c r="M13" s="172"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="181"/>
       <c r="N13" s="49"/>
       <c r="O13" s="116"/>
       <c r="P13" s="117"/>
@@ -11034,8 +11035,8 @@
       <c r="I17" s="116"/>
       <c r="J17" s="117"/>
       <c r="K17" s="113"/>
-      <c r="L17" s="199"/>
-      <c r="M17" s="191"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="196"/>
       <c r="N17" s="129"/>
       <c r="O17" s="116"/>
       <c r="P17" s="117"/>
@@ -11057,10 +11058,10 @@
       <c r="I18" s="113"/>
       <c r="J18" s="133"/>
       <c r="K18" s="113"/>
-      <c r="L18" s="200" t="s">
+      <c r="L18" s="189" t="s">
         <v>273</v>
       </c>
-      <c r="M18" s="188"/>
+      <c r="M18" s="175"/>
       <c r="N18" s="95"/>
       <c r="O18" s="113"/>
       <c r="P18" s="133"/>
@@ -12849,6 +12850,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F1:N1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="L17:M17"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="D9:M9"/>
     <mergeCell ref="D10:J10"/>
@@ -12857,17 +12869,6 @@
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="L12:M12"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="F1:N1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="L6:M6" xr:uid="{00000000-0002-0000-0300-000000000000}">
